--- a/po_analysis_by_asin/B0BSR8VSF2_po_data.xlsx
+++ b/po_analysis_by_asin/B0BSR8VSF2_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,39 +452,39 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45299</v>
+        <v>44990.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45306</v>
+        <v>45004.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45313</v>
+        <v>45011.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45327</v>
+        <v>45025.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45334</v>
+        <v>45046.99999999999</v>
       </c>
       <c r="B6" t="n">
         <v>3</v>
@@ -492,39 +492,39 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45348</v>
+        <v>45060.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45355</v>
+        <v>45088.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45362</v>
+        <v>45095.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45369</v>
+        <v>45102.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45376</v>
+        <v>45109.99999999999</v>
       </c>
       <c r="B11" t="n">
         <v>2</v>
@@ -532,7 +532,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45383</v>
+        <v>45116.99999999999</v>
       </c>
       <c r="B12" t="n">
         <v>2</v>
@@ -540,15 +540,15 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45390</v>
+        <v>45130.99999999999</v>
       </c>
       <c r="B13" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45432</v>
+        <v>45158.99999999999</v>
       </c>
       <c r="B14" t="n">
         <v>4</v>
@@ -556,49 +556,225 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45516</v>
+        <v>45172.99999999999</v>
       </c>
       <c r="B15" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45530</v>
+        <v>45179.99999999999</v>
       </c>
       <c r="B16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45537</v>
+        <v>45200.99999999999</v>
       </c>
       <c r="B17" t="n">
-        <v>24</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45544</v>
+        <v>45207.99999999999</v>
       </c>
       <c r="B18" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45565</v>
+        <v>45228.99999999999</v>
       </c>
       <c r="B19" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45572</v>
+        <v>45242.99999999999</v>
       </c>
       <c r="B20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45256.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45270.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45277.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45305.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45312.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45319.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45333.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45340.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45354.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45361.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45368.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45375.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45389.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45396.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45438.99999999999</v>
+      </c>
+      <c r="B36" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45522.99999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45536.99999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45543.99999999999</v>
+      </c>
+      <c r="B39" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45550.99999999999</v>
+      </c>
+      <c r="B40" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45571.99999999999</v>
+      </c>
+      <c r="B41" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45578.99999999999</v>
+      </c>
+      <c r="B42" t="n">
         <v>34</v>
       </c>
     </row>
@@ -613,7 +789,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -635,65 +811,145 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>45016.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>33</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45323</v>
+        <v>45046.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>24</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45352</v>
+        <v>45077.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>36</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45383</v>
+        <v>45107.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45413</v>
+        <v>45138.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45505</v>
+        <v>45169.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45536</v>
+        <v>45199.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>26</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45566</v>
+        <v>45230.99999999999</v>
       </c>
       <c r="B9" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45260.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45291.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45322.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45351.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45412.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45443.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45535.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45565.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45596.99999999999</v>
+      </c>
+      <c r="B19" t="n">
         <v>50</v>
       </c>
     </row>

--- a/po_analysis_by_asin/B0BSR8VSF2_po_data.xlsx
+++ b/po_analysis_by_asin/B0BSR8VSF2_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -805,7 +806,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -951,6 +952,733 @@
       </c>
       <c r="B19" t="n">
         <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D50"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>44990.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-8.282791521422766</v>
+      </c>
+      <c r="D2" t="n">
+        <v>8.299787722190308</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45004.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-6.977512095854269</v>
+      </c>
+      <c r="D3" t="n">
+        <v>8.364000941616704</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45011.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-6.904683469599772</v>
+      </c>
+      <c r="D4" t="n">
+        <v>8.725668313846013</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45025.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-6.957675821025259</v>
+      </c>
+      <c r="D5" t="n">
+        <v>8.377822209855854</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45046.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>2</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-6.448975829041137</v>
+      </c>
+      <c r="D6" t="n">
+        <v>9.701206481364144</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45060.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>2</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-6.448522130065042</v>
+      </c>
+      <c r="D7" t="n">
+        <v>9.669411121592622</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45088.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>3</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-4.853013002698611</v>
+      </c>
+      <c r="D8" t="n">
+        <v>10.58590234418656</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45095.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>3</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-5.498863021527043</v>
+      </c>
+      <c r="D9" t="n">
+        <v>10.79460309468888</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45102.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>3</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-4.903029261639294</v>
+      </c>
+      <c r="D10" t="n">
+        <v>10.47630901526262</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45109.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>3</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-5.26581417852655</v>
+      </c>
+      <c r="D11" t="n">
+        <v>11.20468916480163</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45116.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>3</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-4.863755895605586</v>
+      </c>
+      <c r="D12" t="n">
+        <v>10.90091846883878</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45130.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>4</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-5.06675690444781</v>
+      </c>
+      <c r="D13" t="n">
+        <v>11.54724841093604</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45158.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>4</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-3.66563793049982</v>
+      </c>
+      <c r="D14" t="n">
+        <v>12.01463252220325</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45172.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>5</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-3.38517749914846</v>
+      </c>
+      <c r="D15" t="n">
+        <v>12.87773661260587</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45179.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>5</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-3.043467459374462</v>
+      </c>
+      <c r="D16" t="n">
+        <v>12.51000704864666</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45200.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>5</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-2.955556907464479</v>
+      </c>
+      <c r="D17" t="n">
+        <v>13.32173240464704</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45207.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>5</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-3.184019046900614</v>
+      </c>
+      <c r="D18" t="n">
+        <v>13.36604722725671</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45228.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>6</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-2.208804616062694</v>
+      </c>
+      <c r="D19" t="n">
+        <v>14.09340467655948</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45242.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>6</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-2.152516171627181</v>
+      </c>
+      <c r="D20" t="n">
+        <v>14.02947965195865</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45256.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>6</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-1.297754917323064</v>
+      </c>
+      <c r="D21" t="n">
+        <v>14.01588491096251</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45270.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>7</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-1.371535548947921</v>
+      </c>
+      <c r="D22" t="n">
+        <v>15.06245252973236</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45277.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>7</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-1.322034490211108</v>
+      </c>
+      <c r="D23" t="n">
+        <v>14.87205355017154</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45305.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>8</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-0.07208052474946607</v>
+      </c>
+      <c r="D24" t="n">
+        <v>15.50233518812161</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45312.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>8</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-0.5865736239344982</v>
+      </c>
+      <c r="D25" t="n">
+        <v>15.23300036281984</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45319.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>8</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.3193233940193386</v>
+      </c>
+      <c r="D26" t="n">
+        <v>15.8346200506836</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45333.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>8</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-0.05461583998993431</v>
+      </c>
+      <c r="D27" t="n">
+        <v>16.26310095015166</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45340.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>8</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-0.1460721935359754</v>
+      </c>
+      <c r="D28" t="n">
+        <v>15.70341610727905</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45354.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>9</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.8115541225475902</v>
+      </c>
+      <c r="D29" t="n">
+        <v>16.62359801022781</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45361.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>9</v>
+      </c>
+      <c r="C30" t="n">
+        <v>1.351651769293508</v>
+      </c>
+      <c r="D30" t="n">
+        <v>16.97076910509673</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45368.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>9</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.6684691882658738</v>
+      </c>
+      <c r="D31" t="n">
+        <v>17.19916915869037</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45375.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>9</v>
+      </c>
+      <c r="C32" t="n">
+        <v>1.205090968111695</v>
+      </c>
+      <c r="D32" t="n">
+        <v>17.41711911967925</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>9</v>
+      </c>
+      <c r="C33" t="n">
+        <v>1.194561638917558</v>
+      </c>
+      <c r="D33" t="n">
+        <v>17.66284630802485</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45389.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>9</v>
+      </c>
+      <c r="C34" t="n">
+        <v>1.883545588691104</v>
+      </c>
+      <c r="D34" t="n">
+        <v>17.81120741494591</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45396.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>10</v>
+      </c>
+      <c r="C35" t="n">
+        <v>1.143024022404023</v>
+      </c>
+      <c r="D35" t="n">
+        <v>17.10516261202403</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45438.99999999999</v>
+      </c>
+      <c r="B36" t="n">
+        <v>11</v>
+      </c>
+      <c r="C36" t="n">
+        <v>2.416530569840205</v>
+      </c>
+      <c r="D36" t="n">
+        <v>18.76788680642683</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45522.99999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>13</v>
+      </c>
+      <c r="C37" t="n">
+        <v>3.77847481092258</v>
+      </c>
+      <c r="D37" t="n">
+        <v>19.72508200295777</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45536.99999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>13</v>
+      </c>
+      <c r="C38" t="n">
+        <v>4.703698355738106</v>
+      </c>
+      <c r="D38" t="n">
+        <v>20.80650485969697</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45543.99999999999</v>
+      </c>
+      <c r="B39" t="n">
+        <v>13</v>
+      </c>
+      <c r="C39" t="n">
+        <v>4.693160840461046</v>
+      </c>
+      <c r="D39" t="n">
+        <v>20.68699455524201</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45550.99999999999</v>
+      </c>
+      <c r="B40" t="n">
+        <v>13</v>
+      </c>
+      <c r="C40" t="n">
+        <v>5.00024663521881</v>
+      </c>
+      <c r="D40" t="n">
+        <v>20.99170831388316</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45571.99999999999</v>
+      </c>
+      <c r="B41" t="n">
+        <v>14</v>
+      </c>
+      <c r="C41" t="n">
+        <v>5.817442180644965</v>
+      </c>
+      <c r="D41" t="n">
+        <v>21.96285306386334</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45578.99999999999</v>
+      </c>
+      <c r="B42" t="n">
+        <v>14</v>
+      </c>
+      <c r="C42" t="n">
+        <v>6.240709463361801</v>
+      </c>
+      <c r="D42" t="n">
+        <v>21.64150681546626</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45585.99999999999</v>
+      </c>
+      <c r="B43" t="n">
+        <v>14</v>
+      </c>
+      <c r="C43" t="n">
+        <v>5.454440284680373</v>
+      </c>
+      <c r="D43" t="n">
+        <v>21.63804875989485</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45592.99999999999</v>
+      </c>
+      <c r="B44" t="n">
+        <v>14</v>
+      </c>
+      <c r="C44" t="n">
+        <v>6.73081472143606</v>
+      </c>
+      <c r="D44" t="n">
+        <v>22.10654146956426</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45599.99999999999</v>
+      </c>
+      <c r="B45" t="n">
+        <v>14</v>
+      </c>
+      <c r="C45" t="n">
+        <v>6.693873404053464</v>
+      </c>
+      <c r="D45" t="n">
+        <v>23.12439871126898</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45606.99999999999</v>
+      </c>
+      <c r="B46" t="n">
+        <v>14</v>
+      </c>
+      <c r="C46" t="n">
+        <v>6.417422185588268</v>
+      </c>
+      <c r="D46" t="n">
+        <v>22.31254467354906</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45613.99999999999</v>
+      </c>
+      <c r="B47" t="n">
+        <v>15</v>
+      </c>
+      <c r="C47" t="n">
+        <v>6.984892873842216</v>
+      </c>
+      <c r="D47" t="n">
+        <v>23.12979573317048</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45620.99999999999</v>
+      </c>
+      <c r="B48" t="n">
+        <v>15</v>
+      </c>
+      <c r="C48" t="n">
+        <v>6.913689885142341</v>
+      </c>
+      <c r="D48" t="n">
+        <v>22.7021822285467</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45627.99999999999</v>
+      </c>
+      <c r="B49" t="n">
+        <v>15</v>
+      </c>
+      <c r="C49" t="n">
+        <v>6.954632314876347</v>
+      </c>
+      <c r="D49" t="n">
+        <v>22.93566595002</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>45634.99999999999</v>
+      </c>
+      <c r="B50" t="n">
+        <v>15</v>
+      </c>
+      <c r="C50" t="n">
+        <v>7.01016568602047</v>
+      </c>
+      <c r="D50" t="n">
+        <v>23.99506238076033</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0BSR8VSF2_po_data.xlsx
+++ b/po_analysis_by_asin/B0BSR8VSF2_po_data.xlsx
@@ -965,7 +965,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D50"/>
+  <dimension ref="A1:B50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -984,16 +984,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -1002,12 +992,6 @@
       <c r="B2" t="n">
         <v>0</v>
       </c>
-      <c r="C2" t="n">
-        <v>-8.282791521422766</v>
-      </c>
-      <c r="D2" t="n">
-        <v>8.299787722190308</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -1016,12 +1000,6 @@
       <c r="B3" t="n">
         <v>1</v>
       </c>
-      <c r="C3" t="n">
-        <v>-6.977512095854269</v>
-      </c>
-      <c r="D3" t="n">
-        <v>8.364000941616704</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -1030,12 +1008,6 @@
       <c r="B4" t="n">
         <v>1</v>
       </c>
-      <c r="C4" t="n">
-        <v>-6.904683469599772</v>
-      </c>
-      <c r="D4" t="n">
-        <v>8.725668313846013</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -1044,12 +1016,6 @@
       <c r="B5" t="n">
         <v>1</v>
       </c>
-      <c r="C5" t="n">
-        <v>-6.957675821025259</v>
-      </c>
-      <c r="D5" t="n">
-        <v>8.377822209855854</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -1058,12 +1024,6 @@
       <c r="B6" t="n">
         <v>2</v>
       </c>
-      <c r="C6" t="n">
-        <v>-6.448975829041137</v>
-      </c>
-      <c r="D6" t="n">
-        <v>9.701206481364144</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -1072,12 +1032,6 @@
       <c r="B7" t="n">
         <v>2</v>
       </c>
-      <c r="C7" t="n">
-        <v>-6.448522130065042</v>
-      </c>
-      <c r="D7" t="n">
-        <v>9.669411121592622</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -1086,12 +1040,6 @@
       <c r="B8" t="n">
         <v>3</v>
       </c>
-      <c r="C8" t="n">
-        <v>-4.853013002698611</v>
-      </c>
-      <c r="D8" t="n">
-        <v>10.58590234418656</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -1100,12 +1048,6 @@
       <c r="B9" t="n">
         <v>3</v>
       </c>
-      <c r="C9" t="n">
-        <v>-5.498863021527043</v>
-      </c>
-      <c r="D9" t="n">
-        <v>10.79460309468888</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -1114,12 +1056,6 @@
       <c r="B10" t="n">
         <v>3</v>
       </c>
-      <c r="C10" t="n">
-        <v>-4.903029261639294</v>
-      </c>
-      <c r="D10" t="n">
-        <v>10.47630901526262</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -1128,12 +1064,6 @@
       <c r="B11" t="n">
         <v>3</v>
       </c>
-      <c r="C11" t="n">
-        <v>-5.26581417852655</v>
-      </c>
-      <c r="D11" t="n">
-        <v>11.20468916480163</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1142,12 +1072,6 @@
       <c r="B12" t="n">
         <v>3</v>
       </c>
-      <c r="C12" t="n">
-        <v>-4.863755895605586</v>
-      </c>
-      <c r="D12" t="n">
-        <v>10.90091846883878</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1156,12 +1080,6 @@
       <c r="B13" t="n">
         <v>4</v>
       </c>
-      <c r="C13" t="n">
-        <v>-5.06675690444781</v>
-      </c>
-      <c r="D13" t="n">
-        <v>11.54724841093604</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1170,12 +1088,6 @@
       <c r="B14" t="n">
         <v>4</v>
       </c>
-      <c r="C14" t="n">
-        <v>-3.66563793049982</v>
-      </c>
-      <c r="D14" t="n">
-        <v>12.01463252220325</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1184,12 +1096,6 @@
       <c r="B15" t="n">
         <v>5</v>
       </c>
-      <c r="C15" t="n">
-        <v>-3.38517749914846</v>
-      </c>
-      <c r="D15" t="n">
-        <v>12.87773661260587</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1198,12 +1104,6 @@
       <c r="B16" t="n">
         <v>5</v>
       </c>
-      <c r="C16" t="n">
-        <v>-3.043467459374462</v>
-      </c>
-      <c r="D16" t="n">
-        <v>12.51000704864666</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1212,12 +1112,6 @@
       <c r="B17" t="n">
         <v>5</v>
       </c>
-      <c r="C17" t="n">
-        <v>-2.955556907464479</v>
-      </c>
-      <c r="D17" t="n">
-        <v>13.32173240464704</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1226,12 +1120,6 @@
       <c r="B18" t="n">
         <v>5</v>
       </c>
-      <c r="C18" t="n">
-        <v>-3.184019046900614</v>
-      </c>
-      <c r="D18" t="n">
-        <v>13.36604722725671</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1240,12 +1128,6 @@
       <c r="B19" t="n">
         <v>6</v>
       </c>
-      <c r="C19" t="n">
-        <v>-2.208804616062694</v>
-      </c>
-      <c r="D19" t="n">
-        <v>14.09340467655948</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1254,12 +1136,6 @@
       <c r="B20" t="n">
         <v>6</v>
       </c>
-      <c r="C20" t="n">
-        <v>-2.152516171627181</v>
-      </c>
-      <c r="D20" t="n">
-        <v>14.02947965195865</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1268,12 +1144,6 @@
       <c r="B21" t="n">
         <v>6</v>
       </c>
-      <c r="C21" t="n">
-        <v>-1.297754917323064</v>
-      </c>
-      <c r="D21" t="n">
-        <v>14.01588491096251</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1282,12 +1152,6 @@
       <c r="B22" t="n">
         <v>7</v>
       </c>
-      <c r="C22" t="n">
-        <v>-1.371535548947921</v>
-      </c>
-      <c r="D22" t="n">
-        <v>15.06245252973236</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1296,12 +1160,6 @@
       <c r="B23" t="n">
         <v>7</v>
       </c>
-      <c r="C23" t="n">
-        <v>-1.322034490211108</v>
-      </c>
-      <c r="D23" t="n">
-        <v>14.87205355017154</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1310,12 +1168,6 @@
       <c r="B24" t="n">
         <v>8</v>
       </c>
-      <c r="C24" t="n">
-        <v>-0.07208052474946607</v>
-      </c>
-      <c r="D24" t="n">
-        <v>15.50233518812161</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1324,12 +1176,6 @@
       <c r="B25" t="n">
         <v>8</v>
       </c>
-      <c r="C25" t="n">
-        <v>-0.5865736239344982</v>
-      </c>
-      <c r="D25" t="n">
-        <v>15.23300036281984</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1338,12 +1184,6 @@
       <c r="B26" t="n">
         <v>8</v>
       </c>
-      <c r="C26" t="n">
-        <v>0.3193233940193386</v>
-      </c>
-      <c r="D26" t="n">
-        <v>15.8346200506836</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1352,12 +1192,6 @@
       <c r="B27" t="n">
         <v>8</v>
       </c>
-      <c r="C27" t="n">
-        <v>-0.05461583998993431</v>
-      </c>
-      <c r="D27" t="n">
-        <v>16.26310095015166</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1366,12 +1200,6 @@
       <c r="B28" t="n">
         <v>8</v>
       </c>
-      <c r="C28" t="n">
-        <v>-0.1460721935359754</v>
-      </c>
-      <c r="D28" t="n">
-        <v>15.70341610727905</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1380,12 +1208,6 @@
       <c r="B29" t="n">
         <v>9</v>
       </c>
-      <c r="C29" t="n">
-        <v>0.8115541225475902</v>
-      </c>
-      <c r="D29" t="n">
-        <v>16.62359801022781</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1394,12 +1216,6 @@
       <c r="B30" t="n">
         <v>9</v>
       </c>
-      <c r="C30" t="n">
-        <v>1.351651769293508</v>
-      </c>
-      <c r="D30" t="n">
-        <v>16.97076910509673</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -1408,12 +1224,6 @@
       <c r="B31" t="n">
         <v>9</v>
       </c>
-      <c r="C31" t="n">
-        <v>0.6684691882658738</v>
-      </c>
-      <c r="D31" t="n">
-        <v>17.19916915869037</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -1422,12 +1232,6 @@
       <c r="B32" t="n">
         <v>9</v>
       </c>
-      <c r="C32" t="n">
-        <v>1.205090968111695</v>
-      </c>
-      <c r="D32" t="n">
-        <v>17.41711911967925</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -1436,12 +1240,6 @@
       <c r="B33" t="n">
         <v>9</v>
       </c>
-      <c r="C33" t="n">
-        <v>1.194561638917558</v>
-      </c>
-      <c r="D33" t="n">
-        <v>17.66284630802485</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -1450,12 +1248,6 @@
       <c r="B34" t="n">
         <v>9</v>
       </c>
-      <c r="C34" t="n">
-        <v>1.883545588691104</v>
-      </c>
-      <c r="D34" t="n">
-        <v>17.81120741494591</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -1464,12 +1256,6 @@
       <c r="B35" t="n">
         <v>10</v>
       </c>
-      <c r="C35" t="n">
-        <v>1.143024022404023</v>
-      </c>
-      <c r="D35" t="n">
-        <v>17.10516261202403</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -1478,12 +1264,6 @@
       <c r="B36" t="n">
         <v>11</v>
       </c>
-      <c r="C36" t="n">
-        <v>2.416530569840205</v>
-      </c>
-      <c r="D36" t="n">
-        <v>18.76788680642683</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -1492,12 +1272,6 @@
       <c r="B37" t="n">
         <v>13</v>
       </c>
-      <c r="C37" t="n">
-        <v>3.77847481092258</v>
-      </c>
-      <c r="D37" t="n">
-        <v>19.72508200295777</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -1506,12 +1280,6 @@
       <c r="B38" t="n">
         <v>13</v>
       </c>
-      <c r="C38" t="n">
-        <v>4.703698355738106</v>
-      </c>
-      <c r="D38" t="n">
-        <v>20.80650485969697</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -1520,12 +1288,6 @@
       <c r="B39" t="n">
         <v>13</v>
       </c>
-      <c r="C39" t="n">
-        <v>4.693160840461046</v>
-      </c>
-      <c r="D39" t="n">
-        <v>20.68699455524201</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -1534,12 +1296,6 @@
       <c r="B40" t="n">
         <v>13</v>
       </c>
-      <c r="C40" t="n">
-        <v>5.00024663521881</v>
-      </c>
-      <c r="D40" t="n">
-        <v>20.99170831388316</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -1548,12 +1304,6 @@
       <c r="B41" t="n">
         <v>14</v>
       </c>
-      <c r="C41" t="n">
-        <v>5.817442180644965</v>
-      </c>
-      <c r="D41" t="n">
-        <v>21.96285306386334</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -1562,12 +1312,6 @@
       <c r="B42" t="n">
         <v>14</v>
       </c>
-      <c r="C42" t="n">
-        <v>6.240709463361801</v>
-      </c>
-      <c r="D42" t="n">
-        <v>21.64150681546626</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -1576,12 +1320,6 @@
       <c r="B43" t="n">
         <v>14</v>
       </c>
-      <c r="C43" t="n">
-        <v>5.454440284680373</v>
-      </c>
-      <c r="D43" t="n">
-        <v>21.63804875989485</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -1590,12 +1328,6 @@
       <c r="B44" t="n">
         <v>14</v>
       </c>
-      <c r="C44" t="n">
-        <v>6.73081472143606</v>
-      </c>
-      <c r="D44" t="n">
-        <v>22.10654146956426</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
@@ -1604,12 +1336,6 @@
       <c r="B45" t="n">
         <v>14</v>
       </c>
-      <c r="C45" t="n">
-        <v>6.693873404053464</v>
-      </c>
-      <c r="D45" t="n">
-        <v>23.12439871126898</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
@@ -1618,12 +1344,6 @@
       <c r="B46" t="n">
         <v>14</v>
       </c>
-      <c r="C46" t="n">
-        <v>6.417422185588268</v>
-      </c>
-      <c r="D46" t="n">
-        <v>22.31254467354906</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
@@ -1632,12 +1352,6 @@
       <c r="B47" t="n">
         <v>15</v>
       </c>
-      <c r="C47" t="n">
-        <v>6.984892873842216</v>
-      </c>
-      <c r="D47" t="n">
-        <v>23.12979573317048</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
@@ -1646,12 +1360,6 @@
       <c r="B48" t="n">
         <v>15</v>
       </c>
-      <c r="C48" t="n">
-        <v>6.913689885142341</v>
-      </c>
-      <c r="D48" t="n">
-        <v>22.7021822285467</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
@@ -1660,12 +1368,6 @@
       <c r="B49" t="n">
         <v>15</v>
       </c>
-      <c r="C49" t="n">
-        <v>6.954632314876347</v>
-      </c>
-      <c r="D49" t="n">
-        <v>22.93566595002</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
@@ -1673,12 +1375,6 @@
       </c>
       <c r="B50" t="n">
         <v>15</v>
-      </c>
-      <c r="C50" t="n">
-        <v>7.01016568602047</v>
-      </c>
-      <c r="D50" t="n">
-        <v>23.99506238076033</v>
       </c>
     </row>
   </sheetData>
